--- a/data/trans_bre/APOYO_SOCIAL_DUKE_CONF_CAT-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/APOYO_SOCIAL_DUKE_CONF_CAT-Estudios-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 13,71</t>
+          <t>-3,42; 12,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 7,86</t>
+          <t>-5,83; 8,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 19,76</t>
+          <t>-4,24; 18,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 12,23</t>
+          <t>-7,7; 12,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 6,72</t>
+          <t>-2,33; 5,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 32,52</t>
+          <t>-6,04; 30,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 9,2</t>
+          <t>-3,04; 7,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 105,52</t>
+          <t>-9,51; 83,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,84</t>
+          <t>10,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 16,39</t>
+          <t>3,7; 15,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 8,0</t>
+          <t>-5,28; 7,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 25,35</t>
+          <t>5,23; 24,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 15,03</t>
+          <t>-9,02; 13,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,0; 8,3</t>
+          <t>1,49; 7,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 29,71</t>
+          <t>-2,81; 26,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 11,39</t>
+          <t>1,99; 10,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 80,87</t>
+          <t>-4,55; 68,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/APOYO_SOCIAL_DUKE_CONF_CAT-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/APOYO_SOCIAL_DUKE_CONF_CAT-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,44</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>4,57</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,71</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>5,04%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4,13%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>6,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,16%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>4,13%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-3,23; 10,05</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-2,87; 8,46</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-3,42; 12,71</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,83; 8,35</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,87; 8,46</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-4,37; 15,94</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 13,85</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-4,24; 18,03</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-7,7; 12,82</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-4,19; 13,85</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,37</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1,88</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,41</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,37</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0,02%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3,85%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>2,45%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>15,81%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,85%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-4,16; 3,87</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-1,15; 6,41</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-2,33; 5,79</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,04; 30,02</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 6,41</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-6,1; 6,06</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 10,76</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-3,04; 7,83</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-9,51; 83,96</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-1,77; 10,76</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-6,97</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>10,21</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,47</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-6,97</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-0,34%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-11,31%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>14,68%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,64%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-11,31%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-6,9; 5,41</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-12,34; -1,04</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>3,7; 15,92</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,28; 7,22</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-12,34; -1,04</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-10,92; 9,77</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-19,03; -1,66</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>5,23; 24,53</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-9,02; 13,84</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-19,03; -1,66</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>4,58</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,84</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,02%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>6,13%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>12,31%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,02%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-1,99; 4,21</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; 2,77</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1,49; 7,57</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,81; 26,0</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,86; 2,77</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-2,98; 6,85</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-4,51; 4,6</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>1,99; 10,41</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-4,55; 68,68</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-4,51; 4,6</t>
         </is>
       </c>
     </row>
